--- a/develop/unity/prj/PreventIntrusions/RowData/Table/stage.xlsx
+++ b/develop/unity/prj/PreventIntrusions/RowData/Table/stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IKDDocs2\Programs\git_marupeke_io\develop\unity\prj\PreventIntrusions\RowData\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC816A9-6E38-4034-B166-5A04DCEA69FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA308528-6AAF-4172-967C-0C45827DFCDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1764" yWindow="1308" windowWidth="19932" windowHeight="10512" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Validate</t>
     <phoneticPr fontId="1"/>
@@ -101,19 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵を3体配置、7*7</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>幅</t>
     <rPh sb="0" eb="1">
       <t>ハバ</t>
@@ -147,6 +134,56 @@
   </si>
   <si>
     <t>enemyNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を6体配置、10-10</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を3体配置、7-7</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage_3</t>
+  </si>
+  <si>
+    <t>maxBarricadeNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1列のバリケードの最大数</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -511,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436107AB-162A-4C3E-8371-F677628E362D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -522,7 +559,8 @@
     <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.296875" bestFit="1" customWidth="1"/>
@@ -530,7 +568,7 @@
     <col min="12" max="12" width="18.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -546,7 +584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -554,18 +592,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -573,16 +614,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -595,8 +639,11 @@
       <c r="F7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -612,8 +659,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -629,10 +679,13 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -645,6 +698,29 @@
       </c>
       <c r="F10">
         <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/develop/unity/prj/PreventIntrusions/RowData/Table/stage.xlsx
+++ b/develop/unity/prj/PreventIntrusions/RowData/Table/stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IKDDocs2\Programs\git_marupeke_io\develop\unity\prj\PreventIntrusions\RowData\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA308528-6AAF-4172-967C-0C45827DFCDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339AA005-EC02-420D-ABC2-9F9B8D87A12F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1764" yWindow="1308" windowWidth="19932" windowHeight="10512" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Validate</t>
     <phoneticPr fontId="1"/>
@@ -180,6 +180,18 @@
     <rPh sb="11" eb="12">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436107AB-162A-4C3E-8371-F677628E362D}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -568,7 +580,7 @@
     <col min="12" max="12" width="18.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -584,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -592,7 +604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -605,8 +617,11 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -625,8 +640,11 @@
       <c r="G6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -642,8 +660,11 @@
       <c r="G7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -662,8 +683,11 @@
       <c r="G8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -682,8 +706,11 @@
       <c r="G9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -702,8 +729,11 @@
       <c r="G10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -721,6 +751,9 @@
       </c>
       <c r="G11">
         <v>4</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
